--- a/spreadsheet/macrofree/review_checklist_master_empty.xlsx
+++ b/spreadsheet/macrofree/review_checklist_master_empty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jomore\Repos\review-checklists\spreadsheet\macrofree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC7FD00-98E0-44CC-9197-5BC4E9DD3FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EC97D8-B807-47E5-9D47-F2FA76672029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,6 @@
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
     <sheet name="Values" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Checklist!$A$7:$R$7</definedName>
   </definedNames>
@@ -370,7 +367,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -439,6 +436,18 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -511,52 +520,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Dashboard"/>
-      <sheetName val="Checklist"/>
-      <sheetName val="Values"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="B2" t="str">
-            <v>Not verified</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>Open</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>Fulfilled</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>Not required</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>N/A</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -860,7 +823,7 @@
   <dimension ref="A1:R1211"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -886,8 +849,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="H1" s="11" t="str">
-        <f>[1]Values!B2</f>
+      <c r="H1" s="27" t="str">
+        <f>Values!B2</f>
         <v>Not verified</v>
       </c>
       <c r="I1" s="19" t="str">
@@ -904,8 +867,8 @@
       <c r="E2" s="16"/>
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
-      <c r="H2" s="8" t="str">
-        <f>[1]Values!B3</f>
+      <c r="H2" s="28" t="str">
+        <f>Values!B3</f>
         <v>Open</v>
       </c>
       <c r="I2" s="19" t="str">
@@ -919,8 +882,8 @@
       <c r="D3" s="25"/>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="9" t="str">
-        <f>[1]Values!B4</f>
+      <c r="H3" s="29" t="str">
+        <f>Values!B4</f>
         <v>Fulfilled</v>
       </c>
       <c r="I3" s="19" t="str">
@@ -937,8 +900,8 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="9" t="str">
-        <f>[1]Values!B5</f>
+      <c r="H4" s="29" t="str">
+        <f>Values!B5</f>
         <v>Not required</v>
       </c>
       <c r="I4" s="19" t="str">
@@ -953,8 +916,8 @@
       <c r="D5" s="3"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="H5" s="10" t="str">
-        <f>[1]Values!B6</f>
+      <c r="H5" s="30" t="str">
+        <f>Values!B6</f>
         <v>N/A</v>
       </c>
       <c r="I5" s="19" t="str">
